--- a/data/minfin/17_questions.xlsx
+++ b/data/minfin/17_questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
@@ -10,8 +10,8 @@
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -40,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0">
+    <comment ref="I8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -209,12 +209,6 @@
     <t>Налоговая ставка устанавливается в размере 6 процентов</t>
   </si>
   <si>
-    <t>Какой срок установлен для представления налоговой декларации</t>
-  </si>
-  <si>
-    <t>Срок, Представления, Налоговой декларации</t>
-  </si>
-  <si>
     <t>Налогоплательщики представляют налоговую декларацию по итогам налогового периода не позднее тридцать первого марта года, следующего за истекшим налоговым периодом</t>
   </si>
   <si>
@@ -270,12 +264,6 @@
   </si>
   <si>
     <t>Если объектом налогообложения являются доходы, то налоговая ставка устанавливается в размере шести процентов, если доходы, уменьшенные на величину расходов, то налоговая ставка - пятнадцать процентов. Законами субъектов Российской Федерации для отдельных категорий налогоплательщиков могут быть установлены иные размеры ставки</t>
-  </si>
-  <si>
-    <t>Какой срок представления налоговой декларации</t>
-  </si>
-  <si>
-    <t>Срок, Представления, Сдачи, Налоговой декларации</t>
   </si>
   <si>
     <t>Организации представляют налоговую декларацию не позднее тридцать первого марта года, следующего за истекшим налоговым периодом, индивидуальные предприниматели - не позднее тридцатого апреля</t>
@@ -491,12 +479,48 @@
   <si>
     <t>В течение пяти дней со дня начала применения системы налогообложения в виде Е  эН  Вэ  Дэ  необходимо подать заявление в налоговые органы о постановке на учет в качестве налогоплательщика единого налога</t>
   </si>
+  <si>
+    <t>Какой срок установлен для представления налоговой декларации по ЕСХН</t>
+  </si>
+  <si>
+    <t>Какой срок представления налоговой декларации при УСН</t>
+  </si>
+  <si>
+    <r>
+      <t>Срок, Представления, Сдачи, Налоговой декларации,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> УСН, Упрощенная система налогообложения</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Срок, Представления, Налоговой декларации, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ЕСХН, Единый сельскохозяйственный налог</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -541,13 +565,26 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -562,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -605,6 +642,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -917,24 +957,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.42578125" style="2" customWidth="1"/>
@@ -952,7 +992,7 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -990,7 +1030,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="112.5" customHeight="1">
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
@@ -1008,7 +1048,7 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="150" customHeight="1">
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
@@ -1026,7 +1066,7 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="47.25">
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -1043,7 +1083,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="31.5">
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -1060,7 +1100,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="31.5">
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
@@ -1077,84 +1117,84 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" ht="63">
+    <row r="7" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="D7" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="126">
+      <c r="E7" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="D8" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:12" s="5" customFormat="1" ht="110.25">
+    <row r="9" spans="1:12" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="D9" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" ht="63">
+    <row r="10" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="D10" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" ht="47.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>44</v>
@@ -1163,294 +1203,294 @@
         <v>44</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="5" customFormat="1" ht="255.75" customHeight="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="5" customFormat="1" ht="255.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="D12" s="9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="5" customFormat="1" ht="152.25" customHeight="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="5" customFormat="1" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>69</v>
+      <c r="B13" s="15" t="s">
+        <v>132</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="5" customFormat="1" ht="94.5">
+        <v>68</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="5" customFormat="1" ht="94.5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="5" customFormat="1" ht="81" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="5" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="5" customFormat="1" ht="63">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="5" customFormat="1" ht="141.75">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="5" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="5" customFormat="1" ht="78.75">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="5" customFormat="1" ht="63">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="B21" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="B23" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="5" customFormat="1" ht="110.25">
-      <c r="A21" s="8" t="s">
+      <c r="B24" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="5" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="5" customFormat="1" ht="94.5">
-      <c r="A22" s="8" t="s">
+      <c r="B25" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="5" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="5" customFormat="1" ht="63">
-      <c r="A23" s="8" t="s">
+      <c r="C26" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B27" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="5" customFormat="1" ht="47.25">
-      <c r="A24" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="5" customFormat="1" ht="126">
-      <c r="A25" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D25" s="9" t="s">
+      <c r="C27" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="5" customFormat="1" ht="141.75">
-      <c r="A26" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="5" customFormat="1" ht="47.25">
-      <c r="A27" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="5" customFormat="1">
+    </row>
+    <row r="28" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="D28" s="9"/>
     </row>
-    <row r="29" spans="1:5" s="5" customFormat="1">
+    <row r="29" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="D29" s="9"/>
     </row>
-    <row r="30" spans="1:5" s="5" customFormat="1">
+    <row r="30" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="D30" s="9"/>
     </row>
-    <row r="31" spans="1:5" s="5" customFormat="1">
+    <row r="31" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="D31" s="9"/>
     </row>

--- a/data/minfin/17_questions.xlsx
+++ b/data/minfin/17_questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
@@ -10,8 +10,8 @@
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -40,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0" shapeId="0">
+    <comment ref="I8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -215,9 +215,6 @@
     <t>Налогоплательщики представляют налоговую декларацию по итогам налогового периода не позднее 31 марта года, следующего за истекшим налоговым периодом</t>
   </si>
   <si>
-    <t>Какие налогоплательщики могут перейти упрощенную систему налогообложения</t>
-  </si>
-  <si>
     <t>Налогоплательщики, Перейти, Упрощенная система налогообложения, УСН</t>
   </si>
   <si>
@@ -480,9 +477,6 @@
     <t>В течение пяти дней со дня начала применения системы налогообложения в виде Е  эН  Вэ  Дэ  необходимо подать заявление в налоговые органы о постановке на учет в качестве налогоплательщика единого налога</t>
   </si>
   <si>
-    <t>Какой срок установлен для представления налоговой декларации по ЕСХН</t>
-  </si>
-  <si>
     <t>Какой срок представления налоговой декларации при УСН</t>
   </si>
   <si>
@@ -515,12 +509,52 @@
       <t>ЕСХН, Единый сельскохозяйственный налог</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>Какие налогоплательщики могут перейти</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF3300"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> на </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>упрощенную систему налогообложения</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Какой срок установлен для представления налоговой декларации </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF3300"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>по ЕСХН</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,6 +602,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF3300"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -957,24 +998,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.42578125" style="2" customWidth="1"/>
@@ -992,7 +1033,7 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -1030,7 +1071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="112.5" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
@@ -1048,7 +1089,7 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="150" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
@@ -1066,7 +1107,7 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="47.25">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -1083,7 +1124,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="31.5">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -1100,7 +1141,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="31.5">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
@@ -1117,12 +1158,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="5" customFormat="1" ht="63">
       <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>131</v>
+      <c r="B7" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>49</v>
@@ -1130,71 +1171,71 @@
       <c r="D7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="E7" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="110.25">
       <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:12" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="5" customFormat="1" ht="110.25">
       <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="5" customFormat="1" ht="63">
       <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" s="5" customFormat="1" ht="47.25">
       <c r="A11" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>44</v>
@@ -1203,294 +1244,294 @@
         <v>44</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="5" customFormat="1" ht="255.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="5" customFormat="1" ht="255.75" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="5" customFormat="1" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:12" s="5" customFormat="1" ht="152.25" customHeight="1">
       <c r="A13" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>68</v>
-      </c>
       <c r="E13" s="15" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="5" customFormat="1" ht="94.5">
       <c r="A14" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:12" s="5" customFormat="1" ht="94.5">
       <c r="A15" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="5" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:12" s="5" customFormat="1" ht="81" customHeight="1">
       <c r="A16" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" s="5" customFormat="1" ht="63">
       <c r="A17" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="5" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" s="5" customFormat="1" ht="141.75">
       <c r="A18" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" s="5" customFormat="1" ht="78.75">
       <c r="A19" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" s="5" customFormat="1" ht="63">
       <c r="A20" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="9" t="s">
+    </row>
+    <row r="21" spans="1:5" s="5" customFormat="1" ht="110.25">
+      <c r="A21" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="B21" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="5" customFormat="1" ht="94.5">
+      <c r="A22" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="9" t="s">
+      <c r="B22" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+    </row>
+    <row r="23" spans="1:5" s="5" customFormat="1" ht="63">
+      <c r="A23" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D22" s="12" t="s">
+      <c r="C23" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+    </row>
+    <row r="24" spans="1:5" s="5" customFormat="1" ht="47.25">
+      <c r="A24" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C24" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+    </row>
+    <row r="25" spans="1:5" s="5" customFormat="1" ht="126">
+      <c r="A25" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D24" s="9" t="s">
+      <c r="C25" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="5" customFormat="1" ht="126" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+    </row>
+    <row r="26" spans="1:5" s="5" customFormat="1" ht="141.75">
+      <c r="A26" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25" s="9" t="s">
+      <c r="C26" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="5" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+    </row>
+    <row r="27" spans="1:5" s="5" customFormat="1" ht="47.25">
+      <c r="A27" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B27" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D26" s="9" t="s">
+      <c r="C27" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:5" s="5" customFormat="1">
       <c r="A28" s="8"/>
       <c r="D28" s="9"/>
     </row>
-    <row r="29" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="5" customFormat="1">
       <c r="A29" s="8"/>
       <c r="D29" s="9"/>
     </row>
-    <row r="30" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="5" customFormat="1">
       <c r="A30" s="8"/>
       <c r="D30" s="9"/>
     </row>
-    <row r="31" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="5" customFormat="1">
       <c r="A31" s="8"/>
       <c r="D31" s="9"/>
     </row>

--- a/data/minfin/17_questions.xlsx
+++ b/data/minfin/17_questions.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="136">
   <si>
     <t>question</t>
   </si>
@@ -373,9 +373,6 @@
   </si>
   <si>
     <t>ПСН, патентная система, патент, документ, удостоверяет, право, применение</t>
-  </si>
-  <si>
-    <t>Патент  является документом удостоверяющий право на осуществление одного из видов предпринимательской деятельности, в отношении которого введена патентная система налогообложения</t>
   </si>
   <si>
     <t>Документом, удостоверяющим право на применение ПСН, является патент на осуществление одного из видов предпринимательской деятельности, в отношении которого законом субъекта Российской Федерации введена данная система налогообложения.
@@ -419,9 +416,6 @@
       </rPr>
       <t>ПСН</t>
     </r>
-  </si>
-  <si>
-    <t>Срок, выдается, выдача, патент</t>
   </si>
   <si>
     <t>Патент выдается по выбору индивидуального предпринимателя на период от одного до двенадцати месяцев включительно в пределах календарного года</t>
@@ -547,6 +541,27 @@
         <charset val="204"/>
       </rPr>
       <t>по ЕСХН</t>
+    </r>
+  </si>
+  <si>
+    <t>Патент  является документом, удостоверяющим право на осуществление одного из видов предпринимательской деятельности, в отношении которого введена патентная система налогообложения</t>
+  </si>
+  <si>
+    <t>Объектом налогообложения в случае применения системы налогообложения в виде единого налога на вменённый доход является вмененный доход</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Срок, выдается, выдача, патент, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>на какой</t>
     </r>
   </si>
 </sst>
@@ -614,7 +629,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -624,6 +639,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,7 +661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -685,6 +706,9 @@
       <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1009,10 +1033,10 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -1107,7 +1131,7 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="47.25">
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="31.5">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -1163,7 +1187,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>49</v>
@@ -1172,7 +1196,7 @@
         <v>50</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="5" customFormat="1" ht="110.25">
@@ -1180,7 +1204,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>52</v>
@@ -1258,7 +1282,7 @@
         <v>65</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>64</v>
@@ -1269,7 +1293,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>66</v>
@@ -1278,7 +1302,7 @@
         <v>67</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="5" customFormat="1" ht="94.5">
@@ -1306,7 +1330,7 @@
         <v>72</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>74</v>
@@ -1325,8 +1349,8 @@
       <c r="C16" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>77</v>
+      <c r="D16" s="16" t="s">
+        <v>134</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>76</v>
@@ -1340,7 +1364,7 @@
         <v>78</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>80</v>
@@ -1366,7 +1390,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="5" customFormat="1" ht="78.75">
+    <row r="19" spans="1:5" s="5" customFormat="1" ht="63">
       <c r="A19" s="8" t="s">
         <v>29</v>
       </c>
@@ -1408,10 +1432,10 @@
         <v>100</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>103</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>101</v>
@@ -1422,16 +1446,16 @@
         <v>94</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>112</v>
-      </c>
       <c r="E22" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="5" customFormat="1" ht="63">
@@ -1439,16 +1463,16 @@
         <v>95</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="5" customFormat="1" ht="47.25">
@@ -1456,16 +1480,16 @@
         <v>96</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="5" customFormat="1" ht="126">
@@ -1473,16 +1497,16 @@
         <v>97</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="5" customFormat="1" ht="141.75">
@@ -1490,16 +1514,16 @@
         <v>98</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="5" customFormat="1" ht="47.25">
@@ -1507,16 +1531,16 @@
         <v>99</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="5" customFormat="1">

--- a/data/minfin/17_questions.xlsx
+++ b/data/minfin/17_questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -155,9 +155,6 @@
     <t>17.19</t>
   </si>
   <si>
-    <t xml:space="preserve">Кто является налогоплательщиками единого сельскохозяйственного налога </t>
-  </si>
-  <si>
     <t>Кто, Является, Налогоплательщиками, Единый сельскохозяйственный налог, ЕСХН</t>
   </si>
   <si>
@@ -167,37 +164,22 @@
     <t>Налогоплательщиками единого сельскохозяйственного налога признаются организации и индивидуальные предприниматели, являющиеся сельскохозяйственными товаропроизводителями и перешедшие на уплату единого сельскохозяйственного налога в порядке, установленном главой 26.1 Кодекса</t>
   </si>
   <si>
-    <t>Какой порядок перехода на уплату ЕСХН</t>
-  </si>
-  <si>
     <t>Порядок, Переход, Уплата, ЕСХН, Единый сельскохозяйственный налог</t>
   </si>
   <si>
-    <t>Необходимо уведомить налоговый орган по месту нахождения организации или месту жительства индивидуального предпринимателя не позднее тридцать первого декабря календарного года, предшествующего календарному году, начиная с которого планируется переход на уплату единого сельскохозяйственного налога</t>
-  </si>
-  <si>
     <t>Организации и индивидуальные предприниматели, изъявившие желание перейти на уплату ЕСХН со следующего календарного года, уведомляют об этом налоговый орган по месту нахождения организации или месту жительства индивидуального предпринимателя не позднее 31 декабря календарного года, предшествующего календарному году, начиная с которого они переходят на уплату ЕСХН</t>
   </si>
   <si>
-    <t>Какой объект налогообложения ЕСХН</t>
-  </si>
-  <si>
     <t>Объект налогообложения, ЕСХН, Единый сельскохозяйственный налог</t>
   </si>
   <si>
     <t>Объектом налогообложения признаются доходы, уменьшенные на величину расходов</t>
   </si>
   <si>
-    <t>Какой налоговый период по ЕСХН</t>
-  </si>
-  <si>
     <t>Налоговый период, ЕСХН, Единый сельскохозяйственный налог</t>
   </si>
   <si>
     <t>Налоговым периодом признается календарный год</t>
-  </si>
-  <si>
-    <t>Какая налоговая ставка по ЕСХН</t>
   </si>
   <si>
     <t>Налоговая ставка, ЕСХН, Единый сельскохозяйственный налог</t>
@@ -226,19 +208,10 @@
 При этом организация имеет право перейти на УСН, если по итогам девяти месяцев того года, в котором организация подает уведомление о переходе на УСН, доходы не превысили 112,5 млн. рублей</t>
   </si>
   <si>
-    <t>Какой порядок перехода на УСН</t>
-  </si>
-  <si>
     <t>Порядок перехода, УСН, Упрощенная система налогообложения</t>
   </si>
   <si>
-    <t>Необходимо уведомить налоговый орган по месту нахождения организации или месту жительства индивидуального предпринимателя не позднее тридцать первого декабря календарного года, предшествующего календарному году, начиная с которого планируется переход на упрощенную систему налогообложения</t>
-  </si>
-  <si>
     <t>Организации и индивидуальные предприниматели, изъявившие желание перейти на УСН со следующего календарного года, уведомляют об этом налоговый орган по месту нахождения организации или месту жительства индивидуального предпринимателя не позднее 31 декабря календарного года, предшествующего календарному году, начиная с которого они переходят на УСН</t>
-  </si>
-  <si>
-    <t>Какой объект налогообложения применяется при УСН</t>
   </si>
   <si>
     <t>Объект, Налогообложения, УСН, Упрощенная система налогообложения</t>
@@ -248,13 +221,7 @@
 Выбор объекта налогообложения осуществляется самим налогоплательщиком</t>
   </si>
   <si>
-    <t>Какой налоговый период при применении УСН</t>
-  </si>
-  <si>
     <t>Налоговый период, При применении, УСН, Упрощенная система налогообложения</t>
-  </si>
-  <si>
-    <t>Какие налоговые ставки применяются при УСН</t>
   </si>
   <si>
     <t>Налоговые ставки, Применяются, УСН, Упрощенная система налогообложения</t>
@@ -271,9 +238,6 @@
 • индивидуальные предприниматели - не позднее 30 апреля года, следующего за истекшим налоговым периодом</t>
   </si>
   <si>
-    <t xml:space="preserve">Какие налогоплательщики могут применять систему налогообложения для отдельных видов деятельности </t>
-  </si>
-  <si>
     <t>ЕНВД, Единый налог на вмененный доход, Вмененка, система налогообложения, Отдельные виды деятельности, какие, налогоплательщики, может, применять</t>
   </si>
   <si>
@@ -292,25 +256,16 @@
     <t>Организации или индивидуальные предприниматели, изъявившие желание перейти на уплату ЕНВД, подают в налоговые органы в течение пяти дней со дня начала применения данной системы налогообложения заявление о постановке на учет организации или индивидуального предпринимателя в качестве налогоплательщика единого налога</t>
   </si>
   <si>
-    <t>Какой объект налогообложения по ЕНВД</t>
-  </si>
-  <si>
     <t>ЕНВД, Единый налог на вмененный доход, отдельные виды деятельности, вмененка, объект налогообложения</t>
   </si>
   <si>
     <t>Объектом налогообложения для применения ЕНВД признается вмененный доход налогоплательщика</t>
   </si>
   <si>
-    <t>Какой налоговый период по ЕНВД</t>
-  </si>
-  <si>
     <t>ЕНВД, Единый налог на вмененный доход, отдельные виды деятельности, вмененка, налоговый период</t>
   </si>
   <si>
     <t>Налоговым периодом по ЕНВД признается квартал</t>
-  </si>
-  <si>
-    <t>Какая налоговая ставка по ЕНВД</t>
   </si>
   <si>
     <t>ЕНВД, Единый налог на вмененный доход, отдельные виды деятельности, вмененка, налоговая ставка</t>
@@ -324,9 +279,6 @@
 Нормативными правовыми актами представительных органов муниципальных районов, городских округов, законами городов федерального значения Москвы, Санкт-Петербурга и Севастополя могут быть установлены ставки единого налога в пределах от 7,5 до 15 процентов в зависимости от категорий налогоплательщиков и видов предпринимательской деятельности, в отношении которых может применяться ЕНВД</t>
   </si>
   <si>
-    <t>Какой срок подачи налоговых деклараций по ЕНВД</t>
-  </si>
-  <si>
     <t>ЕНВД, Единый налог на вмененный доход, отдельные виды деятельности, вмененка, срок, сдачи, подачи, налоговая декларация</t>
   </si>
   <si>
@@ -336,18 +288,12 @@
     <t>Налоговые декларации по итогам налогового периода (квартала) представляются налогоплательщиками в налоговые органы не позднее 20-го числа первого месяца следующего налогового периода</t>
   </si>
   <si>
-    <t>Какие налогоплательщики могут применять патентную систему налогообложения</t>
-  </si>
-  <si>
     <t>Кто, какие, налогоплательщики, применять, ПСН, патентная система, налогообложение</t>
   </si>
   <si>
     <t>Налогоплательщиками признаются индивидуальные предприниматели, перешедшие на патентную систему налогообложения</t>
   </si>
   <si>
-    <t>Патентная система налогообложения применяется индивидуальными предпринимателями, осуществляющими предпринимательскую деятельность, указанную, в пункте 2 статьи 346.43 Кодекса</t>
-  </si>
-  <si>
     <t>17.20</t>
   </si>
   <si>
@@ -369,35 +315,10 @@
     <t>17.26</t>
   </si>
   <si>
-    <t>Каким документом удостоверяется право на применение ПСН</t>
-  </si>
-  <si>
     <t>ПСН, патентная система, патент, документ, удостоверяет, право, применение</t>
   </si>
   <si>
-    <t>Документом, удостоверяющим право на применение ПСН, является патент на осуществление одного из видов предпринимательской деятельности, в отношении которого законом субъекта Российской Федерации введена данная система налогообложения.
-Форма патента и форма заявления на получение патента, утверждаются ФНС России</t>
-  </si>
-  <si>
     <t>ПСН, патентная система, патент, порядок, правила, получение</t>
-  </si>
-  <si>
-    <t>Какой порядок получения патента</t>
-  </si>
-  <si>
-    <t>На какой срок выдается патент</t>
-  </si>
-  <si>
-    <t>Какой налоговый период при применении ПСН</t>
-  </si>
-  <si>
-    <t>Какая налоговая ставка применяется при ПСН</t>
-  </si>
-  <si>
-    <t>Срок уплаты налога при ПСН</t>
-  </si>
-  <si>
-    <t>Представляется ли налоговая декларация при ПСН</t>
   </si>
   <si>
     <t>Заявление на получение патента направляется в налоговый орган по месту жительства не позднее чем за десять дней до начала применения патентной системы налогообложения</t>
@@ -471,9 +392,6 @@
     <t>В течение пяти дней со дня начала применения системы налогообложения в виде Е  эН  Вэ  Дэ  необходимо подать заявление в налоговые органы о постановке на учет в качестве налогоплательщика единого налога</t>
   </si>
   <si>
-    <t>Какой срок представления налоговой декларации при УСН</t>
-  </si>
-  <si>
     <r>
       <t>Срок, Представления, Сдачи, Налоговой декларации,</t>
     </r>
@@ -501,6 +419,60 @@
         <charset val="204"/>
       </rPr>
       <t>ЕСХН, Единый сельскохозяйственный налог</t>
+    </r>
+  </si>
+  <si>
+    <t>Патент  является документом, удостоверяющим право на осуществление одного из видов предпринимательской деятельности, в отношении которого введена патентная система налогообложения</t>
+  </si>
+  <si>
+    <t>Объектом налогообложения в случае применения системы налогообложения в виде единого налога на вменённый доход является вмененный доход</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Срок, выдается, выдача, патент, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>на какой</t>
+    </r>
+  </si>
+  <si>
+    <t>Каким документом удостоверяется право на применение ПСН?</t>
+  </si>
+  <si>
+    <t>Кто является налогоплательщиками единого сельскохозяйственного налога?</t>
+  </si>
+  <si>
+    <t>Какой порядок перехода на уплату ЕСХН?</t>
+  </si>
+  <si>
+    <t>Какой объект налогообложения ЕСХН?</t>
+  </si>
+  <si>
+    <t>Какой налоговый период по ЕСХН?</t>
+  </si>
+  <si>
+    <t>Какая налоговая ставка по ЕСХН?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Какой срок установлен для представления налоговой декларации </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF3300"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>по ЕСХН?</t>
     </r>
   </si>
   <si>
@@ -525,44 +497,72 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>упрощенную систему налогообложения</t>
+      <t>упрощенную систему налогообложения?</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Какой срок установлен для представления налоговой декларации </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF3300"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>по ЕСХН</t>
-    </r>
-  </si>
-  <si>
-    <t>Патент  является документом, удостоверяющим право на осуществление одного из видов предпринимательской деятельности, в отношении которого введена патентная система налогообложения</t>
-  </si>
-  <si>
-    <t>Объектом налогообложения в случае применения системы налогообложения в виде единого налога на вменённый доход является вмененный доход</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Срок, выдается, выдача, патент, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>на какой</t>
-    </r>
+    <t>Какой порядок перехода на УСН?</t>
+  </si>
+  <si>
+    <t>Какой объект налогообложения применяется при УСН?</t>
+  </si>
+  <si>
+    <t>Какой налоговый период при применении УСН?</t>
+  </si>
+  <si>
+    <t>Какие налоговые ставки применяются при УСН?</t>
+  </si>
+  <si>
+    <t>Какой срок представления налоговой декларации при УСН?</t>
+  </si>
+  <si>
+    <t>Какие налогоплательщики могут применять систему налогообложения для отдельных видов деятельности?</t>
+  </si>
+  <si>
+    <t>Какой объект налогообложения по ЕНВД?</t>
+  </si>
+  <si>
+    <t>Какой налоговый период по ЕНВД?</t>
+  </si>
+  <si>
+    <t>Какая налоговая ставка по ЕНВД?</t>
+  </si>
+  <si>
+    <t>Какой срок подачи налоговых деклараций по ЕНВД?</t>
+  </si>
+  <si>
+    <t>Какие налогоплательщики могут применять патентную систему налогообложения?</t>
+  </si>
+  <si>
+    <t>Какой порядок получения патента?</t>
+  </si>
+  <si>
+    <t>На какой срок выдается патент?</t>
+  </si>
+  <si>
+    <t>Какой налоговый период при применении ПСН?</t>
+  </si>
+  <si>
+    <t>Какая налоговая ставка применяется при ПСН?</t>
+  </si>
+  <si>
+    <t>Срок уплаты налога при ПСН?</t>
+  </si>
+  <si>
+    <t>Представляется ли налоговая декларация при ПСН?</t>
+  </si>
+  <si>
+    <t>Необходимо уведомить налоговый орган по месту нахождения организации или месту жительства индивидуального предпринимателя не позднее тридцать первого декабря календарного года, предшествующего календарному г\+оду, начиная с которого планируется переход на уплату единого сельскохозяйственного налога</t>
+  </si>
+  <si>
+    <t>Необходимо уведомить налоговый орган по месту нахождения организации или месту жительства индивидуального предпринимателя не позднее тридцать первого декабря календарного года, предшествующего календарному г\+оду, начиная с которого планируется переход на упрощенную систему налогообложения</t>
+  </si>
+  <si>
+    <t>Патентная система налогообложения применяется индивидуальными предпринимателями, осуществляющими предпринимательскую деятельность, указанную в пункте 2 статьи 346.43 Кодекса</t>
+  </si>
+  <si>
+    <t>Документом, удостоверяющим право на применение ПСН, является патент на осуществление одного из видов предпринимательской деятельности, в отношении которого законом субъекта Российской Федерации введена данная система налогообложения.
+Форма патента и форма заявления на получение патента утверждаются ФНС России</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1022,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1033,10 +1033,10 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -1100,16 +1100,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="F2" s="6"/>
     </row>
@@ -1118,34 +1118,34 @@
         <v>13</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="E3" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="31.5">
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="47.25">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="5" customFormat="1" ht="31.5">
@@ -1153,16 +1153,16 @@
         <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="5" customFormat="1" ht="31.5">
@@ -1170,16 +1170,16 @@
         <v>16</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="5" customFormat="1" ht="63">
@@ -1187,16 +1187,16 @@
         <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="5" customFormat="1" ht="110.25">
@@ -1204,16 +1204,16 @@
         <v>18</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -1223,16 +1223,16 @@
         <v>19</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -1242,16 +1242,16 @@
         <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="5" customFormat="1" ht="47.25">
@@ -1259,16 +1259,16 @@
         <v>21</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="5" customFormat="1" ht="255.75" customHeight="1">
@@ -1276,16 +1276,16 @@
         <v>22</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="5" customFormat="1" ht="152.25" customHeight="1">
@@ -1293,16 +1293,16 @@
         <v>23</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="5" customFormat="1" ht="94.5">
@@ -1310,16 +1310,16 @@
         <v>24</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="5" customFormat="1" ht="94.5">
@@ -1327,16 +1327,16 @@
         <v>25</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="5" customFormat="1" ht="81" customHeight="1">
@@ -1344,16 +1344,16 @@
         <v>26</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="5" customFormat="1" ht="63">
@@ -1361,16 +1361,16 @@
         <v>27</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" ht="141.75">
@@ -1378,16 +1378,16 @@
         <v>28</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="5" customFormat="1" ht="63">
@@ -1395,16 +1395,16 @@
         <v>29</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="5" customFormat="1" ht="63">
@@ -1412,135 +1412,135 @@
         <v>30</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="5" customFormat="1" ht="110.25">
       <c r="A21" s="8" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1" ht="94.5">
       <c r="A22" s="8" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="5" customFormat="1" ht="63">
       <c r="A23" s="8" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="5" customFormat="1" ht="47.25">
       <c r="A24" s="8" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="5" customFormat="1" ht="126">
       <c r="A25" s="8" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="5" customFormat="1" ht="141.75">
       <c r="A26" s="8" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="5" customFormat="1" ht="47.25">
       <c r="A27" s="8" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="5" customFormat="1">
